--- a/Details/ManagerList.xlsx
+++ b/Details/ManagerList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/hu0037ng_e_ntu_edu_sg/Documents/SC4079 - Final Year Project/SC2002/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/kohj0082_e_ntu_edu_sg/Documents/Desktop/Java/SC2002/SC2002-Project/Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048D321184AB85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED78119-22A7-4087-8472-22F30669F0DB}"/>
   <bookViews>
-    <workbookView xWindow="4057" yWindow="5932" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,12 +381,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -420,7 +420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -439,5 +439,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>